--- a/結果/曲げ剛性/曲率試験片/0°方向/0°方向_result.xlsx
+++ b/結果/曲げ剛性/曲率試験片/0°方向/0°方向_result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MALAB-PC127\Desktop\research-programs\Intrinsic strain\結果\曲げ剛性\曲率試験片\0°方向\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D79B31-71BE-40B6-9C53-BFE444D13D4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7568CAEF-C437-43C1-82C6-E4E2B40ED563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2220,7 +2220,4277 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$A$3:$A$305</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="303"/>
+                <c:pt idx="0">
+                  <c:v>0.16501650214195299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49504950642585799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82508251070976302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.15511450171471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4851499795913701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8151850104331999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1452150344848602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4752449989318799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.80527997016907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.13531494140625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4653449058532702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7953799962997401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1254150867462203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.45544505119324</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7854800224304199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1155149936675999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4455449581146196</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.7755749225616499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1056098937988299</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.4356448650360099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.7656748294830296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0957098007202104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.4257450103759801</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.7557752132415798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.0858051776886004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4158401489257795</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.7458748817443794</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0759048461914098</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.4059400558471697</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.7359747886657697</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.065994739532499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.3960499763489</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.7260999679565</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.056099891662599</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.386149883270299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.716199874877899</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.046199798584</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.3762497901917</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.7062997817993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.0362997055054</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.366349697113</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.6963996887207</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.0263996124268</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.356449604034401</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.686499595642101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.016499996185299</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.346549987793001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.676599979400599</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.006600379943801</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.336600303649899</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.666649818420399</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.9966993331909</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.326699256897001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17.6567497253418</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.9868001937866</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.316800117492701</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.646849632263201</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18.976899147033699</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.306900024414102</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19.636950492858901</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.967000007629402</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20.296999931335399</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20.627050399780298</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.957100868225101</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>21.287100791931199</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21.617150306701699</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21.9471998214722</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22.277199745178201</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22.607250213623001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22.9373006820679</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>23.267300605773901</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23.597350120544402</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>23.927399635314899</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.257399559021</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24.587450027465799</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>24.917500495910598</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25.247500419616699</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25.5775499343872</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25.907599449157701</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>26.237599372863802</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26.567649841308601</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26.8977003097534</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27.227700233459501</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27.557749748229998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>27.887799263000499</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>28.2177991867065</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>28.547849655151399</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28.877900123596199</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29.2079000473022</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>29.5379495620728</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>29.868000030517599</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>30.198000907897899</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>30.5280504226685</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>30.858099937439</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>31.188099861145002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>31.518150329589801</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>31.848199844360401</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>32.178199768066399</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>32.508251190185497</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>32.838300704956097</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>33.168300628662102</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>33.498350143432603</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>33.828399658203097</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>34.158399581909201</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>34.488449096679702</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>34.8185005187988</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>35.148500442504897</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>35.478549957275398</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>35.808599472045898</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>36.138599395752003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>36.468650817871101</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>36.798700332641602</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>37.128700256347699</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>37.4587497711182</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>37.7887992858887</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>38.118799209594698</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>38.448848724365199</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>38.778900146484403</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>39.108900070190401</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>39.438949584960902</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>39.768999099731403</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>40.0989990234375</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>40.429050445556598</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>40.759099960327099</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41.089099884033203</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41.419151306152301</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41.749200820922901</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>42.079200744628899</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>42.4092502593994</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>42.739299774169901</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43.069299697875998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43.399349212646499</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43.729400634765597</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44.059400558471701</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44.389450073242202</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44.719499588012702</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>45.0494995117188</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>45.379550933837898</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>45.709600448608398</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>46.039600372314503</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>46.369649887084996</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>46.699699401855497</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>47.029699325561502</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>47.359748840332003</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>47.6898002624512</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>48.019800186157198</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>48.349849700927699</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>48.6798992156982</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>49.009899139404297</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>49.339950561523402</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>49.670000076293903</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>50.330049514770501</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>50.660099029541001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>50.990100860595703</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>51.3201007843018</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>51.650150299072301</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>51.980199813842802</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>52.310249328613303</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>52.640300750732401</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>52.970300674438498</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>53.300300598144503</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>53.630350112915004</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>53.960399627685497</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>54.290399551391602</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>54.620449066162102</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>54.9505004882812</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>55.280500411987298</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>55.610549926757798</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>55.940599441528299</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>56.270599365234403</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>56.600650787353501</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>56.930700302124002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>57.260700225830099</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>57.5907497406006</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>57.920799255371101</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>58.250799179077099</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>58.580848693847699</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>58.910900115966797</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>59.240900039672901</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>59.570949554443402</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>59.9010009765625</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>60.231000900268597</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>60.561050415039098</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>60.891099929809599</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>61.221099853515597</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>61.551151275634801</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>61.881200790405302</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>62.2112007141113</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>62.5412502288818</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>62.871299743652301</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>63.201299667358398</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>63.531349182128899</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>63.8613986968994</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>64.191398620605497</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>64.521450042724595</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>64.851501464843807</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>65.1814994812012</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>65.511547088623004</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>65.841598510742202</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>66.171600341796903</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>66.501651763916001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>66.831699371337905</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>67.161697387695298</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>67.491748809814496</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>67.821800231933594</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>68.151802062988295</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>68.481849670410199</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>68.811897277832003</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>69.141899108886705</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>69.471950531005902</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>69.802001953125</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>70.131999969482393</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>70.462047576904297</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>70.792098999023395</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>71.122100830078097</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>71.452152252197294</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>71.782199859619098</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>72.112197875976605</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>72.442249298095703</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>72.772300720214801</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>73.102302551269503</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>73.432350158691406</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>73.762397766113295</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>74.092399597167997</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>74.422451019287095</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>74.752502441406193</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>75.0825004577637</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>75.412548065185504</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>75.742599487304702</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>76.072601318359403</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>76.402652740478501</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>76.732700347900405</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>77.062698364257798</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>77.392749786376996</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>77.722801208496094</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>78.052799224853501</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>78.382846832275405</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>78.712898254394503</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>79.042900085449205</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>79.372901916503906</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>79.702949523925795</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>80.032997131347699</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>80.363048553466797</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>80.693099975585895</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>81.023101806640597</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>81.353153228759794</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>81.683200836181598</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>82.013198852539105</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>82.343200683593807</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>82.673252105712905</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>83.003299713134794</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>83.333347320556598</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>83.663398742675795</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>83.993400573730497</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>84.323402404785199</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>84.653450012207003</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>84.983497619628906</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>85.313549041748004</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>85.643600463867202</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>85.973602294921903</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>86.303649902343807</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>86.633697509765597</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>86.963699340820298</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>87.293701171875</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>87.623752593994098</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>87.953800201416001</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>88.283798217773395</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>88.613849639892607</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>88.943901062011705</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>89.273902893066406</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>89.603950500488295</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>89.933998107910199</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>90.263999938964801</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>90.594051361083999</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>90.924102783203097</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>91.254100799560504</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>91.584148406982393</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>91.914199829101605</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>92.244201660156193</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>92.574253082275405</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>92.904300689697294</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>93.234298706054702</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>93.5643501281738</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>93.894401550292997</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>94.224399566650405</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>94.554447174072294</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>94.884498596191406</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>95.214500427246094</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>95.544551849365206</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>95.874599456787095</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>96.204597473144503</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>96.5346488952637</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>96.864700317382798</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>97.1947021484375</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>97.524749755859403</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>97.854797363281193</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>98.184799194335895</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>98.514850616455107</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>98.844902038574205</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>99.174900054931598</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>99.504947662353501</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>99.834999084472699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$C$3:$C$305</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="303"/>
+                <c:pt idx="0">
+                  <c:v>-5.5503572944571727E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.8696160507755706E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.1612377160889884E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.5897717413054124E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.1112558698749433E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.6274110914592531E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.1733212620936236E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.7064375223387391E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.1843791317367668E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.6170626335827184E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0038979279073081E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.041623335309797E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.075634969431799E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.107649472519715E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.1364517980141511E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.163686894699097E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.1881212104401269E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2106650736835371E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.2319311472974079E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.252160708518275E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.2699955372732739E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.286332718726726E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.3032937566043181E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.317563502868881E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3301252776694821E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3430724838861451E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.3550512529032079E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.3652548014270729E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.3751225343162039E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.385852717598334E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.3946408981332059E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.402273075087446E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.4111870704278979E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.418457843879763E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.424119658491871E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.430737889306804E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.436771608664311E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.4417601538572409E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.446618033506201E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.452545570490555E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.4570075977623619E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.4606566806846971E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.4657178939970591E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.469435980225137E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.471847096715357E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.475307543608047E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.4788858107982391E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.481224424451264E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.4834125195131311E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.4873706272623939E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.4897972969956199E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.4911055913156619E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.494323832369477E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.496478064877153E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.497005346312612E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.498766614332931E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.501129816631472E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.502247001950828E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.5031150563851599E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.5059709242856489E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.507400552387915E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.507550651762124E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.509755452498855E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.5112322821585519E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.510997428697868E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.5119766127944681E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.5138781427917041E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.5144230322075319E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.5145267034738759E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.5169094488901511E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.5179439143848641E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.5174843380241901E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.519189821530724E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.5203334324279149E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.5197199444362651E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.5202858062711379E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.521913416705002E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.522245177604563E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.522064723113534E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.524202847057135E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.525029561332664E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.5243830887972321E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.5258211084497909E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.526698274510495E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.5259413491858659E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.526358282571281E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1.527788454718312E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1.5280382399405049E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.5278423306957171E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-1.529740010443166E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.53038787400017E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.529659620347263E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.530963847159551E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.5316109726942541E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.530818947497845E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.531218543793207E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1.532545040441873E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.532715240684812E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.5324631471599671E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.5342132527269989E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.5347674417225119E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-1.5339692352065301E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-1.535130039714621E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-1.5357533443353871E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-1.534918133407772E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-1.535287867094965E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-1.5366183548409049E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-1.5367789952155649E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-1.536490112893691E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1.5382588374607809E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1.538785798912953E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-1.5379083122947239E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-1.539098546543795E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-1.5396826038221271E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-1.538772912312074E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-1.539160414239525E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-1.540494053858851E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-1.54061057305764E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-1.540311594559348E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-1.5420415918692381E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-1.5425729042538951E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-1.5416575184017079E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-1.5428281485371309E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-1.5434328643145369E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-1.542491996164023E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-1.542802852486643E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-1.5441553497614341E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-1.5442907511067029E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-1.543963582290778E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-1.5456954830907321E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-1.546223894047213E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-1.545310799102805E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-1.546448670703982E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-1.5470347054697591E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-1.5461259746552221E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-1.546418099825576E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-1.547766157943798E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-1.54791972846111E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-1.5476063806305109E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-1.549347988426221E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-1.549885433885778E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-1.548990900226563E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-1.5501297614803219E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-1.550751408336791E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-1.5498464941115999E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-1.5501604839085451E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-1.5515464720213821E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-1.55171210368839E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-1.5514304904810429E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-1.5532036712651119E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-1.553783693853983E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-1.5529043146675459E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.554076678966834E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-1.5547563273163621E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-1.553883180304407E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-1.5542056970495519E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-1.555671853684241E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-1.555891297596799E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-1.5555923227283729E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-1.557366942464836E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-1.55794585492072E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-1.557026568918439E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.558200249410592E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.558880778811656E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.558038751429747E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-1.558368755267611E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-1.559837874530462E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-1.5600589316438899E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-1.5597729164066911E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-1.5616123875046279E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-1.5623212785175981E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-1.561417965195298E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-1.5626559117302721E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-1.5634407994097141E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-1.5625627431298559E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-1.562930550161239E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-1.5644658504166801E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-1.5646911037721461E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-1.5644970958955649E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1.566450640772914E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-1.5671932155718441E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-1.5663602849847611E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-1.567720943902717E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-1.5685390112889459E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-1.5676681273114661E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-1.5681438167185941E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-1.5697425112012241E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-1.570044236262505E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-1.5698766025367791E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-1.5719380923218441E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-1.5727623251335299E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-1.5719747160697978E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-1.5734458196270111E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-1.574407095556132E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-1.573624293064721E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-1.574160374081943E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-1.5759065328273029E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-1.5762792161868749E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-1.576224468239602E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-1.5784243727264662E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-1.5794011667736162E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-1.578777860018038E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-1.5803620237050221E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-1.5814565101298961E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-1.5808342209389242E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-1.5815226299902251E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-1.5833439734556819E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-1.5838662731974061E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-1.5839500874051012E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-1.5862421908171769E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-1.5873045119612829E-2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-1.5868364933229039E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-1.5885855987583072E-2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-1.5897533664991258E-2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-1.5891784015609069E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-1.5898660791614831E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-1.5916824325179858E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-1.592134844278156E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-1.5921898626658E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-1.59457887651514E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-1.595631780735297E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-1.595034941148829E-2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-1.5969546104868629E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-1.598190928434395E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-1.5974134817167591E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-1.5980295404439581E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-1.5999624876802159E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-1.6002019681454101E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-1.6000326750439609E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-1.6025818498795408E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-1.603570289672886E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-1.6027362617639651E-2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-1.6045785857440629E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-1.6057182030862961E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-1.6046492981088699E-2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-1.6050073093188118E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-1.6065953422502999E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-1.6062434213438361E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-1.6057567090205432E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-1.6078712410797801E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-1.6081943526704171E-2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-1.6069257577504079E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-1.6082407408160679E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-1.6086139061348918E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-1.6068056610392258E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-1.6064649249176308E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-1.6069724837649749E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-1.6056409102318901E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-1.6042836591022101E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-1.6051404603735039E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-1.604040028064177E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-1.601595562435745E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-1.6015208719995351E-2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-1.6001858616815589E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-1.5967443172196189E-2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-1.5946845073979438E-2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-1.5930758896841399E-2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-1.5895378430654479E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-1.5861396487265811E-2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-1.5845534510155121E-2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-1.5807586359264901E-2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-1.5758396931188669E-2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-1.5729097914151599E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-1.5682682581665809E-2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-1.561868380906516E-2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-1.556725008317951E-2</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-1.551086562562819E-2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-1.543757738856609E-2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-1.5366283454899571E-2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-1.5306395476967541E-2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-1.5220439554626861E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-1.512272855101968E-2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-1.5043712542381521E-2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-1.4936783473491901E-2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-1.480879895207444E-2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-1.469283637166079E-2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-1.456483375847871E-2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-1.440719109950492E-2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-1.425030558864044E-2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-1.409957129570192E-2</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-1.390523440571948E-2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-1.3695368929772619E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-1.3490906308567261E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-1.324486977434507E-2</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-1.2963538283345989E-2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-1.2679642995224359E-2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-1.2366893287886869E-2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-1.2000626286834751E-2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-1.161782949585875E-2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-1.1206155313382451E-2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-1.073006682539201E-2</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-1.0207699498652981E-2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-9.6531533605384631E-3</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-9.0386922241061721E-3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-8.3603924104473596E-3</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-7.6653136037474184E-3</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-6.9112546528488613E-3</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-6.1186819198326614E-3</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-5.3637479454288726E-3</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-4.6539623175110706E-3</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-3.876729616527525E-3</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-3.303215644209709E-3</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-2.4840627151298312E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DD5-4DCF-A718-8F8224C9D324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1057533759"/>
+        <c:axId val="1113566943"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1057533759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1113566943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1113566943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1057533759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$A$3:$A$305</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="303"/>
+                <c:pt idx="0">
+                  <c:v>0.16501650214195299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49504950642585799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82508251070976302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.15511450171471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4851499795913701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8151850104331999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1452150344848602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4752449989318799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.80527997016907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.13531494140625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4653449058532702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7953799962997401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1254150867462203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.45544505119324</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7854800224304199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1155149936675999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4455449581146196</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.7755749225616499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1056098937988299</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.4356448650360099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.7656748294830296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0957098007202104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.4257450103759801</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.7557752132415798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.0858051776886004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4158401489257795</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.7458748817443794</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0759048461914098</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.4059400558471697</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.7359747886657697</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.065994739532499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.3960499763489</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.7260999679565</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.056099891662599</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.386149883270299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.716199874877899</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.046199798584</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.3762497901917</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.7062997817993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.0362997055054</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.366349697113</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.6963996887207</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.0263996124268</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.356449604034401</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.686499595642101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.016499996185299</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.346549987793001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.676599979400599</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.006600379943801</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.336600303649899</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.666649818420399</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.9966993331909</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.326699256897001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17.6567497253418</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.9868001937866</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.316800117492701</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.646849632263201</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18.976899147033699</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.306900024414102</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19.636950492858901</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.967000007629402</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20.296999931335399</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20.627050399780298</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.957100868225101</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>21.287100791931199</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>21.617150306701699</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21.9471998214722</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22.277199745178201</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22.607250213623001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22.9373006820679</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>23.267300605773901</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23.597350120544402</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>23.927399635314899</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.257399559021</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24.587450027465799</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>24.917500495910598</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25.247500419616699</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25.5775499343872</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25.907599449157701</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>26.237599372863802</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26.567649841308601</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26.8977003097534</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27.227700233459501</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27.557749748229998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>27.887799263000499</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>28.2177991867065</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>28.547849655151399</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28.877900123596199</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29.2079000473022</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>29.5379495620728</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>29.868000030517599</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>30.198000907897899</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>30.5280504226685</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>30.858099937439</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>31.188099861145002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>31.518150329589801</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>31.848199844360401</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>32.178199768066399</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>32.508251190185497</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>32.838300704956097</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>33.168300628662102</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>33.498350143432603</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>33.828399658203097</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>34.158399581909201</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>34.488449096679702</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>34.8185005187988</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>35.148500442504897</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>35.478549957275398</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>35.808599472045898</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>36.138599395752003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>36.468650817871101</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>36.798700332641602</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>37.128700256347699</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>37.4587497711182</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>37.7887992858887</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>38.118799209594698</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>38.448848724365199</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>38.778900146484403</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>39.108900070190401</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>39.438949584960902</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>39.768999099731403</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>40.0989990234375</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>40.429050445556598</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>40.759099960327099</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41.089099884033203</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41.419151306152301</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41.749200820922901</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>42.079200744628899</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>42.4092502593994</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>42.739299774169901</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43.069299697875998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>43.399349212646499</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43.729400634765597</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44.059400558471701</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44.389450073242202</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44.719499588012702</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>45.0494995117188</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>45.379550933837898</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>45.709600448608398</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>46.039600372314503</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>46.369649887084996</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>46.699699401855497</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>47.029699325561502</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>47.359748840332003</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>47.6898002624512</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>48.019800186157198</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>48.349849700927699</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>48.6798992156982</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>49.009899139404297</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>49.339950561523402</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>49.670000076293903</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>50.330049514770501</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>50.660099029541001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>50.990100860595703</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>51.3201007843018</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>51.650150299072301</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>51.980199813842802</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>52.310249328613303</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>52.640300750732401</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>52.970300674438498</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>53.300300598144503</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>53.630350112915004</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>53.960399627685497</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>54.290399551391602</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>54.620449066162102</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>54.9505004882812</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>55.280500411987298</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>55.610549926757798</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>55.940599441528299</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>56.270599365234403</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>56.600650787353501</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>56.930700302124002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>57.260700225830099</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>57.5907497406006</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>57.920799255371101</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>58.250799179077099</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>58.580848693847699</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>58.910900115966797</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>59.240900039672901</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>59.570949554443402</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>59.9010009765625</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>60.231000900268597</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>60.561050415039098</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>60.891099929809599</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>61.221099853515597</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>61.551151275634801</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>61.881200790405302</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>62.2112007141113</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>62.5412502288818</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>62.871299743652301</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>63.201299667358398</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>63.531349182128899</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>63.8613986968994</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>64.191398620605497</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>64.521450042724595</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>64.851501464843807</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>65.1814994812012</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>65.511547088623004</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>65.841598510742202</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>66.171600341796903</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>66.501651763916001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>66.831699371337905</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>67.161697387695298</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>67.491748809814496</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>67.821800231933594</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>68.151802062988295</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>68.481849670410199</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>68.811897277832003</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>69.141899108886705</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>69.471950531005902</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>69.802001953125</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>70.131999969482393</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>70.462047576904297</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>70.792098999023395</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>71.122100830078097</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>71.452152252197294</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>71.782199859619098</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>72.112197875976605</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>72.442249298095703</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>72.772300720214801</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>73.102302551269503</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>73.432350158691406</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>73.762397766113295</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>74.092399597167997</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>74.422451019287095</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>74.752502441406193</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>75.0825004577637</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>75.412548065185504</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>75.742599487304702</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>76.072601318359403</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>76.402652740478501</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>76.732700347900405</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>77.062698364257798</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>77.392749786376996</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>77.722801208496094</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>78.052799224853501</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>78.382846832275405</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>78.712898254394503</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>79.042900085449205</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>79.372901916503906</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>79.702949523925795</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>80.032997131347699</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>80.363048553466797</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>80.693099975585895</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>81.023101806640597</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>81.353153228759794</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>81.683200836181598</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>82.013198852539105</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>82.343200683593807</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>82.673252105712905</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>83.003299713134794</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>83.333347320556598</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>83.663398742675795</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>83.993400573730497</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>84.323402404785199</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>84.653450012207003</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>84.983497619628906</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>85.313549041748004</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>85.643600463867202</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>85.973602294921903</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>86.303649902343807</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>86.633697509765597</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>86.963699340820298</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>87.293701171875</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>87.623752593994098</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>87.953800201416001</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>88.283798217773395</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>88.613849639892607</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>88.943901062011705</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>89.273902893066406</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>89.603950500488295</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>89.933998107910199</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>90.263999938964801</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>90.594051361083999</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>90.924102783203097</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>91.254100799560504</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>91.584148406982393</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>91.914199829101605</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>92.244201660156193</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>92.574253082275405</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>92.904300689697294</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>93.234298706054702</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>93.5643501281738</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>93.894401550292997</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>94.224399566650405</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>94.554447174072294</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>94.884498596191406</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>95.214500427246094</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>95.544551849365206</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>95.874599456787095</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>96.204597473144503</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>96.5346488952637</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>96.864700317382798</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>97.1947021484375</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>97.524749755859403</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>97.854797363281193</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>98.184799194335895</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>98.514850616455107</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>98.844902038574205</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>99.174900054931598</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>99.504947662353501</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>99.834999084472699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$D$3:$D$305</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="303"/>
+                <c:pt idx="0">
+                  <c:v>1.365369301744967E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8742033223601618E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7722908412189909E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.875051119391027E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.3872218015326957E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.0318876548810097E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3317039584662251E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.9108012780075103E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.4192585046028002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.3913529433283551E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.3994775682851469E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.7680451090672552E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.0464570731930909E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.645544101912508E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.0184453475063864E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.761010399854139E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.9137895779351181E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.431623717923123E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.3747322199585537E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.853505244646966E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.8590200343274871E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.2801000576920331E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.508744489440808E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.0685313606218169E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.242179847525768E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3782041635306741E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.2524376334921371E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.772501979829789E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2438836903315869E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.087553460110303E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.0891393744746569E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.0918385412176351E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.629701115446658E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.2324925682778211E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.417828104112045E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.4879475699998829E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.371842826263665E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.8862368980436871E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.287816790654199E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.1262208151667881E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.1568653801017162E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.1395757472221261E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.671984098850895E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.2984916570628969E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.496377175068441E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.572501533483404E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.439232984028481E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.9478693064567711E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.352460168858726E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.1710646696417981E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.1904809697250059E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.185785862315611E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.691874645446701E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.3192876491372528E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.563285067852976E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.6337007940990301E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.4699938290192302E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.9556418513517341E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.332137964818418E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.1301352138689842E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.1422057107318088E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.136649978504561E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.653071677188871E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.3035797367081281E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.520626626483119E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.5858206032788339E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2.4416901640693231E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.9011461513772281E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.274838684129166E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.0994965397228508E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.10037486927312E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.067893436516764E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.5946875901158119E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.2778900802671591E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.487544467934852E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.5307271037962979E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.404558167140654E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.858931981669991E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.2014411864556449E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2.0283415504872291E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2.0517328187228349E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.001492238179965E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.524105137057331E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.2329448142501631E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.445451680600452E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.4772098219348021E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2.3534440752120381E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1.805801959369153E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.1260830143113589E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-1.9529071079356869E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.995588629173727E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-9.3518288780371889E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.4452856340145071E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.1736502270262421E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.381535947415187E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.402929864679063E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.2817402830647739E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.726249218673764E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.0348456317577459E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.863576788371252E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.9028280832919849E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-8.315867668196484E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-1.346434083953131E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-2.0779753766167939E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-1.2937570383836079E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-1.322398014209509E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-2.2036822207354471E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-1.6421237094398329E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-9.5279257566271687E-4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1.77523043903123E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1.82121250944948E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-7.5851938377575145E-4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-1.2690129138207609E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-2.0102441913305278E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-1.232138725420962E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-1.2595356529032601E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-2.1425972958603891E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-1.5874210803494659E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-8.9111955996291447E-4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-1.716053002501173E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-1.767742719999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-7.0210112604397865E-4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-1.216363021592356E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-1.9620982809656321E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-1.17952051128341E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-1.216759345013284E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-2.1027401288771928E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-1.5410898155784249E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-8.4308747918358752E-4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-1.666640004608474E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-1.7215015615384679E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-6.5457063696619316E-4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-1.1761906132224679E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-1.926378284323964E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-1.1377710554286999E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-1.1833643846953261E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-2.0730969120102182E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-1.5058043163898381E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-8.0866050810774338E-4</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-1.6302537057633769E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-1.688090327952452E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-6.2416518908323863E-4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-1.1496966733889041E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-1.902089315974224E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-1.1118311362541911E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-1.160637090597975E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-2.0535335660299288E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-1.484385216088609E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-7.8546371022794755E-4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-1.607890592489211E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-1.6664425800519531E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-6.0166073943062302E-4</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.1340054797347511E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-1.8902598504310869E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-1.0935913371858401E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-1.1473966124967399E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-2.0409201784762862E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-1.4602561917370709E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-7.5538966593345505E-4</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-1.582914402775627E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-1.6572140254107249E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-6.0191161248531236E-4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.14535453205176E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.9000528902872551E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.0837476779246449E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-1.1442348050584991E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-2.0456755468473489E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-1.4632346336724391E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-7.7320242749433167E-4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-1.6041939270795369E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-1.6510320382955781E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-5.9545653604292648E-4</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-1.1433804011447769E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-1.894300186452537E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-1.093026970149655E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-1.159737756786777E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-2.054639692340056E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-1.4730612238080111E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-7.919945463235802E-4</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1.6150383775875761E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-1.6635158101025759E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-6.2002820345885199E-4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-1.163350112124667E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-1.918797293809664E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-1.128583905998173E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-1.190460685235015E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-2.0856789973141962E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-1.5085393293145851E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-8.3515562462119902E-4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-1.653743680704979E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-1.713446026661049E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-6.7578181043495859E-4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-1.2151145492009889E-3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-1.966175972140936E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-1.176325194788549E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-1.2389052371018609E-3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-2.1228503049605949E-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-1.5513920906353161E-3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-8.8507197946637061E-4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-1.6987657178041181E-3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-1.7537314852742591E-3</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-7.1898057698771773E-4</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-1.2763660015037491E-3</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-2.032819501264627E-3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-1.2265278722508189E-3</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-1.2996973015689511E-3</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-2.181126845158391E-3</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-1.6019463708629869E-3</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-9.4726735445668537E-4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-1.762404054063884E-3</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-1.816210738741137E-3</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-7.8139934568945406E-4</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-1.3340867022398281E-3</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-2.076167904320751E-3</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-1.2584644136685169E-3</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-1.3205284757116811E-3</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-2.1904315516208328E-3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-1.611709016634636E-3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-9.6447909567142778E-4</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-1.7828749158534181E-3</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-1.8400099378622699E-3</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-8.1106560861556075E-4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-1.364305561347664E-3</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-2.104957303817755E-3</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-1.2731680051336111E-3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-1.339919466240325E-3</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-2.2214166897787488E-3</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-1.64115825355624E-3</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-1.002514746647775E-3</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-1.8380177745642729E-3</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-1.8866823070071909E-3</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-8.5405848153621475E-4</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-1.4215731898773031E-3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-2.1278566165963391E-3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-1.278456289364754E-3</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-1.3536188464146909E-3</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-2.211555443074774E-3</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-1.622021712185838E-3</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-1.0106705515197209E-3</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-1.8291977547021561E-3</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-1.848719507078458E-3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-8.5259820072294628E-4</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-1.422779051349754E-3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-2.0865155530896788E-3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-1.2526830219023229E-3</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-1.3358313329628741E-3</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-2.1569594665061149E-3</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-1.5831174618165631E-3</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-9.9834258909183341E-4</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-1.7924909336709499E-3</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-1.7986468394792039E-3</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-8.2861449889684547E-4</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-1.394886795588104E-3</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-2.0202184844840712E-3</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-1.179663156561477E-3</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-1.2528194656638411E-3</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-2.0585465263107052E-3</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-1.4871649379889029E-3</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-8.96500331329107E-4</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-1.696746363852952E-3</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-1.6919699094628429E-3</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-7.0384576610751871E-4</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-1.259752672098704E-3</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-1.8384698975687629E-3</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-9.7529555646510657E-4</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-1.044100614883873E-3</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-1.842536526738617E-3</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-1.2852168042282741E-3</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-7.1249139568268117E-4</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-1.497643242755589E-3</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-1.472402887791422E-3</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-5.2145780939111405E-4</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-1.0711517760640769E-3</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-1.579224649627897E-3</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-6.9863431412705516E-4</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-7.7882815380887641E-4</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-1.50387537435983E-3</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-8.9794462961035064E-4</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-4.0137105572461999E-4</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-1.1885789201143001E-3</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-1.063941297401438E-3</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-1.064889083414942E-4</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-6.8217870118668237E-4</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-1.0786849838436629E-3</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-1.0150906101726599E-4</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-2.1753107230388941E-4</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-9.7763097901908905E-4</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-3.0305967121640011E-4</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2.6671835440769171E-4</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-6.9627696435409225E-4</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-6.8473876082081624E-4</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>4.1011152848387228E-4</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-4.14152759867024E-4</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-1.06409661442359E-3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-4.1430771488978999E-5</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-1.5799451316278381E-4</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-1.3559669813733011E-3</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-1.730268127393792E-3</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-2.2946027104675999E-3</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-3.1242532021652121E-3</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>6.9835507177013411E-5</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>4.4515836905651392E-3</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>9.4498533039841723E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56AB-42CB-90B8-42AD0691972B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="482658207"/>
+        <c:axId val="472853695"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="482658207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472853695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="472853695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482658207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2776,6 +7046,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2809,6 +8111,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6966535B-7FB4-490C-9EEA-6D36B3A098FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCEE78BF-F80F-4E18-920E-2C7418092597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3105,7 +8479,7 @@
   <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8291,6 +13665,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>